--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -1,69 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\github\around-ch-prototyp-railway\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAA78D5-DCD1-4D8A-A150-74FB6E4450A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="14890" yWindow="3240" windowWidth="20820" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>vorname</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>needs_password_change</t>
-  </si>
-  <si>
-    <t>schul_id</t>
-  </si>
-  <si>
-    <t>gochlimos</t>
-  </si>
-  <si>
-    <t>tinel</t>
-  </si>
-  <si>
-    <t>gochlimoos.tinel@gymneufeld.ch</t>
-  </si>
-  <si>
-    <t>passwort123</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -89,26 +65,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -118,44 +86,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -183,31 +151,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -235,23 +186,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -263,136 +197,180 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
     <a:lnDef>
       <a:spPr/>
       <a:bodyPr/>
@@ -414,71 +392,65 @@
     </a:lnDef>
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
-    </sheetView>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>vorname</v>
+      </c>
+      <c r="C1" t="str">
+        <v>email</v>
+      </c>
+      <c r="D1" t="str">
+        <v>password</v>
+      </c>
+      <c r="E1" t="str">
+        <v>needs_password_change</v>
+      </c>
+      <c r="F1" t="str">
+        <v>schul_id</v>
+      </c>
+      <c r="G1" t="str">
+        <v>userrole</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2">
+      <c r="A2" t="str">
+        <v>admin</v>
+      </c>
+      <c r="B2" t="str">
+        <v>admin</v>
+      </c>
+      <c r="C2" t="str">
+        <v>admin@admin.ch</v>
+      </c>
+      <c r="D2" t="str">
+        <v>admin123</v>
+      </c>
+      <c r="E2" t="str">
+        <v>false</v>
+      </c>
+      <c r="F2">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
+      <c r="G2" t="str">
+        <v>admin</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F2" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -1,45 +1,144 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\github\around-ch-prototyp-railway\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808BF554-C3D1-4962-8D92-F9C9D57CCBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1500" yWindow="1830" windowWidth="16850" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>vorname</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>needs_password_change</t>
+  </si>
+  <si>
+    <t>schul_id</t>
+  </si>
+  <si>
+    <t>userrole</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>admin@admin.ch</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Senn</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>patrick.senn@gymneufeld.ch</t>
+  </si>
+  <si>
+    <t>Gochlismoos12</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>Meier</t>
+  </si>
+  <si>
+    <t>Jonas</t>
+  </si>
+  <si>
+    <t>jonas.meier@gymhofwil.ch</t>
+  </si>
+  <si>
+    <t>umdieschweiz11</t>
+  </si>
+  <si>
+    <t>Susanne</t>
+  </si>
+  <si>
+    <t>susanne.meier@gymburgdorf.ch</t>
+  </si>
+  <si>
+    <t>umdieschweiz12</t>
+  </si>
+  <si>
+    <t>Berner</t>
+  </si>
+  <si>
+    <t>Mirko</t>
+  </si>
+  <si>
+    <t>mirko.berner@gbsl.ch</t>
+  </si>
+  <si>
+    <t>umdieschweiz13</t>
+  </si>
+  <si>
+    <t>Walther</t>
+  </si>
+  <si>
+    <t>Matthias</t>
+  </si>
+  <si>
+    <t>matthias.walther@gymburgdorf.ch</t>
+  </si>
+  <si>
+    <t>umdieschweiz28</t>
+  </si>
+  <si>
+    <t>Holzer</t>
+  </si>
+  <si>
+    <t>Beat</t>
+  </si>
+  <si>
+    <t>beat.holzer@gymthun.ch</t>
+  </si>
+  <si>
+    <t>umdieschweiz30</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -65,18 +164,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -86,44 +193,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -151,14 +258,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -186,6 +310,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -197,180 +338,136 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
+            <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
     <a:lnDef>
       <a:spPr/>
       <a:bodyPr/>
@@ -392,65 +489,214 @@
     </a:lnDef>
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="30.08203125" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>vorname</v>
-      </c>
-      <c r="C1" t="str">
-        <v>email</v>
-      </c>
-      <c r="D1" t="str">
-        <v>password</v>
-      </c>
-      <c r="E1" t="str">
-        <v>needs_password_change</v>
-      </c>
-      <c r="F1" t="str">
-        <v>schul_id</v>
-      </c>
-      <c r="G1" t="str">
-        <v>userrole</v>
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>admin</v>
-      </c>
-      <c r="B2" t="str">
-        <v>admin</v>
-      </c>
-      <c r="C2" t="str">
-        <v>admin@admin.ch</v>
-      </c>
-      <c r="D2" t="str">
-        <v>admin123</v>
-      </c>
-      <c r="E2" t="str">
-        <v>false</v>
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
       </c>
       <c r="F2">
         <v>7</v>
       </c>
-      <c r="G2" t="str">
-        <v>admin</v>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
+    <ignoredError sqref="A1:G8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\github\around-ch-prototyp-railway\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808BF554-C3D1-4962-8D92-F9C9D57CCBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A34F0A9-38BC-4283-B708-061D780B7257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1830" windowWidth="16850" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19680" yWindow="2670" windowWidth="16850" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -501,15 +501,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:E18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="30.08203125" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -555,7 +557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -578,7 +580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -601,7 +603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -624,7 +626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -647,7 +649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -670,7 +672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>32</v>
       </c>

--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\github\around-ch-prototyp-railway\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A34F0A9-38BC-4283-B708-061D780B7257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4179D4-E43C-43C8-A46C-8D8838CC56DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19680" yWindow="2670" windowWidth="16850" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>name</t>
   </si>
@@ -128,16 +128,42 @@
   </si>
   <si>
     <t>umdieschweiz30</t>
+  </si>
+  <si>
+    <t>Helmer</t>
+  </si>
+  <si>
+    <t>Sven</t>
+  </si>
+  <si>
+    <t>Meyer</t>
+  </si>
+  <si>
+    <t>Andre</t>
+  </si>
+  <si>
+    <t>umdieschweiz2</t>
+  </si>
+  <si>
+    <t>umdieschweiz1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -160,13 +186,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -499,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:E18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -695,6 +725,48 @@
         <v>16</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <ignoredErrors>
